--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -15,9 +15,18 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>테섭에서 3번시트를 바꾸었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,13 +42,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -51,17 +73,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1266,7 +1295,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1342,16 +1371,16 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
         <v>3</v>
       </c>
       <c r="I3">
@@ -1371,16 +1400,16 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
         <v>3</v>
       </c>
       <c r="I4">
@@ -1400,16 +1429,16 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
         <v>3</v>
       </c>
       <c r="I5">
@@ -1429,16 +1458,16 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
         <v>3</v>
       </c>
       <c r="I6">
@@ -1458,16 +1487,16 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
         <v>3</v>
       </c>
       <c r="I7">
@@ -1487,16 +1516,16 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
         <v>3</v>
       </c>
       <c r="I8">
@@ -1516,16 +1545,16 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
         <v>3</v>
       </c>
       <c r="I9">
@@ -1545,16 +1574,16 @@
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
         <v>3</v>
       </c>
       <c r="I10">
@@ -1574,16 +1603,16 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
         <v>3</v>
       </c>
       <c r="I11">
@@ -1603,16 +1632,16 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
         <v>3</v>
       </c>
       <c r="I12">
@@ -1702,8 +1731,8 @@
       <c r="H15">
         <v>3</v>
       </c>
-      <c r="I15">
-        <v>3</v>
+      <c r="I15" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="테스트용 시트1" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,18 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>본섭에서2변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,13 +42,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -51,17 +73,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -814,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -917,22 +946,22 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
         <v>2</v>
       </c>
     </row>
@@ -946,22 +975,22 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
         <v>2</v>
       </c>
     </row>
@@ -975,22 +1004,22 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1004,22 +1033,22 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1033,22 +1062,22 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1062,22 +1091,22 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1091,22 +1120,22 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1120,22 +1149,22 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1149,22 +1178,22 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1178,22 +1207,22 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1207,22 +1236,22 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1251,8 +1280,8 @@
       <c r="H15">
         <v>2</v>
       </c>
-      <c r="I15">
-        <v>2</v>
+      <c r="I15" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1265,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O29" sqref="O28:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
